--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -12,8 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet name="wifimesh" sheetId="1" r:id="rId1"/>
+    <sheet name="wifimesh-single-source" sheetId="2" r:id="rId1"/>
+    <sheet name="wifimesh-double-source" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>throughput (Kbps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +43,26 @@
   </si>
   <si>
     <t>arrival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Received</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average delay (us)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>wifimesh!$B$1</c:f>
+              <c:f>[1]wifimesh!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -178,7 +202,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>wifimesh!$A$2:$A$22</c:f>
+              <c:f>[1]wifimesh!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -250,7 +274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wifimesh!$B$2:$B$22</c:f>
+              <c:f>[1]wifimesh!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -323,7 +347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D42D-4299-BA91-D51DCB0524F4}"/>
+              <c16:uniqueId val="{00000000-9F08-4354-848C-1E1A1B8BCE6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -332,7 +356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>wifimesh!$C$1</c:f>
+              <c:f>[1]wifimesh!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -361,7 +385,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>wifimesh!$A$2:$A$22</c:f>
+              <c:f>[1]wifimesh!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -433,7 +457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wifimesh!$C$2:$C$22</c:f>
+              <c:f>[1]wifimesh!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -506,7 +530,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D42D-4299-BA91-D51DCB0524F4}"/>
+              <c16:uniqueId val="{00000001-9F08-4354-848C-1E1A1B8BCE6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,7 +968,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>wifimesh!$E$1</c:f>
+              <c:f>[1]wifimesh!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -973,7 +997,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>wifimesh!$A$2:$A$22</c:f>
+              <c:f>[1]wifimesh!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1045,7 +1069,1211 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wifimesh!$E$2:$E$22</c:f>
+              <c:f>[1]wifimesh!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84CA-4B35-8FD9-60D26A1D4865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="688233560"/>
+        <c:axId val="688233888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="688233560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688233888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688233888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688233560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wifimesh-double-source'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average delay (us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wifimesh-double-source'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wifimesh-double-source'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55782</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120410</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>317287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>374641</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>315146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>415898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>444034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D42D-4299-BA91-D51DCB0524F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wifimesh-double-source'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>throughput (Kbps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wifimesh-double-source'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wifimesh-double-source'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D42D-4299-BA91-D51DCB0524F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="605593144"/>
+        <c:axId val="605593472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="605593144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>Arrival (packets/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605593472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605593472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+                  <a:t> (kbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605593144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Receiving</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ercentage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wifimesh-double-source'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wifimesh-double-source'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wifimesh-double-source'!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1053,64 +2281,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97799999999999998</c:v>
+                  <c:v>0.99498997995991989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.98848848848848847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.996</c:v>
+                  <c:v>0.97599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99399999999999999</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94799999999999995</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98799999999999999</c:v>
+                  <c:v>0.98299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98599999999999999</c:v>
+                  <c:v>0.97599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98599999999999999</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88600000000000001</c:v>
+                  <c:v>0.91800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.93100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85799999999999998</c:v>
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96399999999999997</c:v>
+                  <c:v>0.84550000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83199999999999996</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96799999999999997</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92400000000000004</c:v>
+                  <c:v>0.69099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.65800000000000003</c:v>
+                  <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.78600000000000003</c:v>
+                  <c:v>0.71550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59399999999999997</c:v>
+                  <c:v>0.66400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55400000000000005</c:v>
+                  <c:v>0.64749999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,6 +2633,83 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1902,6 +3207,998 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2414,8 +4711,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2444,6 +4743,73 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
@@ -2460,6 +4826,325 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="wifimesh"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>average delay (us)</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>throughput (Kbps)</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>percentage</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>1441</v>
+          </cell>
+          <cell r="C2">
+            <v>7</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>10</v>
+          </cell>
+          <cell r="B3">
+            <v>1452</v>
+          </cell>
+          <cell r="C3">
+            <v>75</v>
+          </cell>
+          <cell r="E3">
+            <v>0.97799999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>20</v>
+          </cell>
+          <cell r="B4">
+            <v>1463</v>
+          </cell>
+          <cell r="C4">
+            <v>154</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>30</v>
+          </cell>
+          <cell r="B5">
+            <v>1481</v>
+          </cell>
+          <cell r="C5">
+            <v>230</v>
+          </cell>
+          <cell r="E5">
+            <v>0.996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>40</v>
+          </cell>
+          <cell r="B6">
+            <v>1448</v>
+          </cell>
+          <cell r="C6">
+            <v>307</v>
+          </cell>
+          <cell r="E6">
+            <v>0.99399999999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>50</v>
+          </cell>
+          <cell r="B7">
+            <v>1467</v>
+          </cell>
+          <cell r="C7">
+            <v>361</v>
+          </cell>
+          <cell r="E7">
+            <v>0.94799999999999995</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>60</v>
+          </cell>
+          <cell r="B8">
+            <v>1503</v>
+          </cell>
+          <cell r="C8">
+            <v>456</v>
+          </cell>
+          <cell r="E8">
+            <v>0.98799999999999999</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>70</v>
+          </cell>
+          <cell r="B9">
+            <v>1512</v>
+          </cell>
+          <cell r="C9">
+            <v>537</v>
+          </cell>
+          <cell r="E9">
+            <v>0.99</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>80</v>
+          </cell>
+          <cell r="B10">
+            <v>1571</v>
+          </cell>
+          <cell r="C10">
+            <v>610</v>
+          </cell>
+          <cell r="E10">
+            <v>0.98599999999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>90</v>
+          </cell>
+          <cell r="B11">
+            <v>1586</v>
+          </cell>
+          <cell r="C11">
+            <v>684</v>
+          </cell>
+          <cell r="E11">
+            <v>0.98599999999999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>100</v>
+          </cell>
+          <cell r="B12">
+            <v>1730</v>
+          </cell>
+          <cell r="C12">
+            <v>674</v>
+          </cell>
+          <cell r="E12">
+            <v>0.88600000000000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>110</v>
+          </cell>
+          <cell r="B13">
+            <v>1838</v>
+          </cell>
+          <cell r="C13">
+            <v>830</v>
+          </cell>
+          <cell r="E13">
+            <v>0.97599999999999998</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>120</v>
+          </cell>
+          <cell r="B14">
+            <v>1997</v>
+          </cell>
+          <cell r="C14">
+            <v>826</v>
+          </cell>
+          <cell r="E14">
+            <v>0.85799999999999998</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>130</v>
+          </cell>
+          <cell r="B15">
+            <v>2513</v>
+          </cell>
+          <cell r="C15">
+            <v>972</v>
+          </cell>
+          <cell r="E15">
+            <v>0.96399999999999997</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>140</v>
+          </cell>
+          <cell r="B16">
+            <v>2868</v>
+          </cell>
+          <cell r="C16">
+            <v>908</v>
+          </cell>
+          <cell r="E16">
+            <v>0.83199999999999996</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>150</v>
+          </cell>
+          <cell r="B17">
+            <v>2401</v>
+          </cell>
+          <cell r="C17">
+            <v>1129</v>
+          </cell>
+          <cell r="E17">
+            <v>0.96799999999999997</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>160</v>
+          </cell>
+          <cell r="B18">
+            <v>2915</v>
+          </cell>
+          <cell r="C18">
+            <v>1193</v>
+          </cell>
+          <cell r="E18">
+            <v>0.92400000000000004</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>170</v>
+          </cell>
+          <cell r="B19">
+            <v>24265</v>
+          </cell>
+          <cell r="C19">
+            <v>894</v>
+          </cell>
+          <cell r="E19">
+            <v>0.65800000000000003</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>180</v>
+          </cell>
+          <cell r="B20">
+            <v>93271</v>
+          </cell>
+          <cell r="C20">
+            <v>1109</v>
+          </cell>
+          <cell r="E20">
+            <v>0.78600000000000003</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>190</v>
+          </cell>
+          <cell r="B21">
+            <v>156383</v>
+          </cell>
+          <cell r="C21">
+            <v>871</v>
+          </cell>
+          <cell r="E21">
+            <v>0.59399999999999997</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>200</v>
+          </cell>
+          <cell r="B22">
+            <v>215281</v>
+          </cell>
+          <cell r="C22">
+            <v>1055</v>
+          </cell>
+          <cell r="E22">
+            <v>0.55400000000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2727,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2739,16 +5424,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3127,6 +5812,488 @@
       <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>0.55400000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>98</v>
+      </c>
+      <c r="E2">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2/D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1488</v>
+      </c>
+      <c r="C3">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <v>998</v>
+      </c>
+      <c r="E3">
+        <v>993</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F22" si="0">E3/D3</f>
+        <v>0.99498997995991989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1490</v>
+      </c>
+      <c r="C4">
+        <v>315</v>
+      </c>
+      <c r="D4">
+        <v>1998</v>
+      </c>
+      <c r="E4">
+        <v>1975</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98848848848848847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1591</v>
+      </c>
+      <c r="C5">
+        <v>469</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>1952</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>1503</v>
+      </c>
+      <c r="C6">
+        <v>633</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>1984</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>1515</v>
+      </c>
+      <c r="C7">
+        <v>780</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>1944</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>1715</v>
+      </c>
+      <c r="C8">
+        <v>946</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>1966</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>1844</v>
+      </c>
+      <c r="C9">
+        <v>1091</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>1944</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>2087</v>
+      </c>
+      <c r="C10">
+        <v>1248</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>1952</v>
+      </c>
+      <c r="F10" s="1">
+        <f>E10/D10</f>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>2318</v>
+      </c>
+      <c r="C11">
+        <v>1319</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <v>1816</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>2343</v>
+      </c>
+      <c r="C12">
+        <v>1478</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>1836</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>7841</v>
+      </c>
+      <c r="C13">
+        <v>1642</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>1862</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>7411</v>
+      </c>
+      <c r="C14">
+        <v>1711</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>1784</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>27705</v>
+      </c>
+      <c r="C15">
+        <v>1776</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>1691</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84550000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>55782</v>
+      </c>
+      <c r="C16">
+        <v>1839</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>1625</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>120410</v>
+      </c>
+      <c r="C17">
+        <v>1805</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>1475</v>
+      </c>
+      <c r="F17" s="1">
+        <f>E17/D17</f>
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>317287</v>
+      </c>
+      <c r="C18">
+        <v>1720</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>1382</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>374641</v>
+      </c>
+      <c r="C19">
+        <v>1755</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>1354</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>315146</v>
+      </c>
+      <c r="C20">
+        <v>1865</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>1431</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71550000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <v>415898</v>
+      </c>
+      <c r="C21">
+        <v>1826</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>1328</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>444034</v>
+      </c>
+      <c r="C22">
+        <v>1877</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>1295</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64749999999999996</v>
       </c>
     </row>
   </sheetData>
